--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H2">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N2">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O2">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P2">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q2">
-        <v>39.93726195325378</v>
+        <v>396.3366938074367</v>
       </c>
       <c r="R2">
-        <v>359.4353575792841</v>
+        <v>3567.03024426693</v>
       </c>
       <c r="S2">
-        <v>0.0001498860647344304</v>
+        <v>0.001225470608875976</v>
       </c>
       <c r="T2">
-        <v>0.0001498860647344303</v>
+        <v>0.001225470608875976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H3">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.798158</v>
       </c>
       <c r="O3">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P3">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q3">
-        <v>159.1117860051494</v>
+        <v>92.68065728817533</v>
       </c>
       <c r="R3">
-        <v>1432.006074046344</v>
+        <v>834.1259155935779</v>
       </c>
       <c r="S3">
-        <v>0.0005971525911088565</v>
+        <v>0.0002865680197987129</v>
       </c>
       <c r="T3">
-        <v>0.0005971525911088564</v>
+        <v>0.0002865680197987128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H4">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N4">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O4">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P4">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q4">
-        <v>329.3137469752383</v>
+        <v>24.68900691323222</v>
       </c>
       <c r="R4">
-        <v>2963.823722777145</v>
+        <v>222.20106221909</v>
       </c>
       <c r="S4">
-        <v>0.001235927031123047</v>
+        <v>7.633825685895694E-05</v>
       </c>
       <c r="T4">
-        <v>0.001235927031123047</v>
+        <v>7.633825685895694E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H5">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I5">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J5">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N5">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O5">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P5">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q5">
-        <v>56600.27906754044</v>
+        <v>50886.88490020764</v>
       </c>
       <c r="R5">
-        <v>509402.511607864</v>
+        <v>457981.9641018687</v>
       </c>
       <c r="S5">
-        <v>0.2124230024139903</v>
+        <v>0.1573419337568513</v>
       </c>
       <c r="T5">
-        <v>0.2124230024139902</v>
+        <v>0.1573419337568513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.947355</v>
       </c>
       <c r="I6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N6">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O6">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P6">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q6">
-        <v>45.79950187609611</v>
+        <v>780.2971046235167</v>
       </c>
       <c r="R6">
-        <v>412.195516884865</v>
+        <v>7022.673941611651</v>
       </c>
       <c r="S6">
-        <v>0.0001718872743714951</v>
+        <v>0.002412673827197375</v>
       </c>
       <c r="T6">
-        <v>0.0001718872743714951</v>
+        <v>0.002412673827197375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.947355</v>
       </c>
       <c r="I7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.798158</v>
       </c>
       <c r="O7">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P7">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q7">
         <v>182.4672044413433</v>
@@ -883,10 +883,10 @@
         <v>1642.20483997209</v>
       </c>
       <c r="S7">
-        <v>0.0006848063657648296</v>
+        <v>0.0005641874689383974</v>
       </c>
       <c r="T7">
-        <v>0.0006848063657648296</v>
+        <v>0.0005641874689383973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>82.947355</v>
       </c>
       <c r="I8">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J8">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N8">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O8">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P8">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q8">
-        <v>377.6524687663989</v>
+        <v>48.60705786627221</v>
       </c>
       <c r="R8">
-        <v>3398.87221889759</v>
+        <v>437.46352079645</v>
       </c>
       <c r="S8">
-        <v>0.00141734409451738</v>
+        <v>0.000150292722651593</v>
       </c>
       <c r="T8">
-        <v>0.00141734409451738</v>
+        <v>0.000150292722651593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.947355</v>
       </c>
       <c r="I9">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J9">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N9">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O9">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P9">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q9">
-        <v>64908.42037132152</v>
+        <v>100184.7408310725</v>
       </c>
       <c r="R9">
-        <v>584175.7833418937</v>
+        <v>901662.6674796523</v>
       </c>
       <c r="S9">
-        <v>0.2436037730621861</v>
+        <v>0.3097705997567481</v>
       </c>
       <c r="T9">
-        <v>0.2436037730621861</v>
+        <v>0.309770599756748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H10">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N10">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O10">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P10">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q10">
-        <v>60.4162669395841</v>
+        <v>730.8632411254767</v>
       </c>
       <c r="R10">
-        <v>543.7464024562569</v>
+        <v>6577.769170129291</v>
       </c>
       <c r="S10">
-        <v>0.0002267445501927142</v>
+        <v>0.002259824626639962</v>
       </c>
       <c r="T10">
-        <v>0.0002267445501927141</v>
+        <v>0.002259824626639962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H11">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I11">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J11">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.798158</v>
       </c>
       <c r="O11">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P11">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q11">
-        <v>240.7010312267513</v>
+        <v>170.9074295507593</v>
       </c>
       <c r="R11">
-        <v>2166.309281040762</v>
+        <v>1538.166865956834</v>
       </c>
       <c r="S11">
-        <v>0.0009033601349618222</v>
+        <v>0.0005284447163874163</v>
       </c>
       <c r="T11">
-        <v>0.0009033601349618222</v>
+        <v>0.0005284447163874162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H12">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I12">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J12">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N12">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O12">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P12">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q12">
-        <v>498.1790506174068</v>
+        <v>45.52767355308555</v>
       </c>
       <c r="R12">
-        <v>4483.611455556662</v>
+        <v>409.74906197777</v>
       </c>
       <c r="S12">
-        <v>0.001869684945291903</v>
+        <v>0.0001407712853781685</v>
       </c>
       <c r="T12">
-        <v>0.001869684945291903</v>
+        <v>0.0001407712853781685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H13">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I13">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J13">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N13">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O13">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P13">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q13">
-        <v>85623.7358735825</v>
+        <v>93837.7753310284</v>
       </c>
       <c r="R13">
-        <v>770613.6228622426</v>
+        <v>844539.9779792556</v>
       </c>
       <c r="S13">
-        <v>0.3213491408843553</v>
+        <v>0.2901458216390984</v>
       </c>
       <c r="T13">
-        <v>0.3213491408843553</v>
+        <v>0.2901458216390983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H14">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I14">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J14">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N14">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O14">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P14">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q14">
-        <v>40.11632687529289</v>
+        <v>586.27958622044</v>
       </c>
       <c r="R14">
-        <v>361.046941877636</v>
+        <v>5276.51627598396</v>
       </c>
       <c r="S14">
-        <v>0.0001505581022047966</v>
+        <v>0.001812772858841558</v>
       </c>
       <c r="T14">
-        <v>0.0001505581022047966</v>
+        <v>0.001812772858841558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H15">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I15">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J15">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.798158</v>
       </c>
       <c r="O15">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P15">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q15">
-        <v>159.8251884309307</v>
+        <v>137.097518989624</v>
       </c>
       <c r="R15">
-        <v>1438.426695878376</v>
+        <v>1233.877670906616</v>
       </c>
       <c r="S15">
-        <v>0.0005998300175758365</v>
+        <v>0.000423904681793679</v>
       </c>
       <c r="T15">
-        <v>0.0005998300175758365</v>
+        <v>0.000423904681793679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H16">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I16">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J16">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N16">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O16">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P16">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q16">
-        <v>330.7902763501751</v>
+        <v>36.52112202438666</v>
       </c>
       <c r="R16">
-        <v>2977.112487151576</v>
+        <v>328.69009821948</v>
       </c>
       <c r="S16">
-        <v>0.001241468502086508</v>
+        <v>0.0001129230836895556</v>
       </c>
       <c r="T16">
-        <v>0.001241468502086508</v>
+        <v>0.0001129230836895556</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H17">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I17">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J17">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N17">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O17">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P17">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q17">
-        <v>56854.05521700416</v>
+        <v>75274.23599550928</v>
       </c>
       <c r="R17">
-        <v>511686.4969530375</v>
+        <v>677468.1239595836</v>
       </c>
       <c r="S17">
-        <v>0.2133754339655347</v>
+        <v>0.2327474726902509</v>
       </c>
       <c r="T17">
-        <v>0.2133754339655347</v>
+        <v>0.2327474726902509</v>
       </c>
     </row>
   </sheetData>
